--- a/iterationsNORMAL/iter_3/data.xlsx
+++ b/iterationsNORMAL/iter_3/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-19.8572747803728</v>
+        <v>-12.05158055110787</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.7286519168275</v>
+        <v>-22.88755399104108</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3020439730684694</v>
+        <v>-28.82208831785591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-17.98115013087163</v>
+        <v>-21.80099867831775</v>
       </c>
       <c r="B3" t="n">
-        <v>70.33083904199337</v>
+        <v>-27.66552450125767</v>
       </c>
       <c r="C3" t="n">
-        <v>28.40211976852065</v>
+        <v>20.1517128032723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-24.352672832068</v>
+        <v>-23.71112065686577</v>
       </c>
       <c r="B4" t="n">
-        <v>24.85958393112929</v>
+        <v>29.46566541830875</v>
       </c>
       <c r="C4" t="n">
-        <v>27.36485102177333</v>
+        <v>-34.1876706787609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-26.07431576206931</v>
+        <v>21.4465894384041</v>
       </c>
       <c r="B5" t="n">
-        <v>-45.82569877612997</v>
+        <v>-0.5654725546676554</v>
       </c>
       <c r="C5" t="n">
-        <v>-29.90780829931176</v>
+        <v>-25.83768607863448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-25.18683495203468</v>
+        <v>31.54962242501771</v>
       </c>
       <c r="B6" t="n">
-        <v>6.428016844408781</v>
+        <v>-25.83443366382506</v>
       </c>
       <c r="C6" t="n">
-        <v>-32.62992357025146</v>
+        <v>-20.40925775634973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-17.07704363485091</v>
+        <v>17.7442686090972</v>
       </c>
       <c r="B7" t="n">
-        <v>44.3513675823022</v>
+        <v>36.27894847626209</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.71531566402229</v>
+        <v>-27.37844745714048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.50189689214398</v>
+        <v>41.51051605438594</v>
       </c>
       <c r="B8" t="n">
-        <v>-29.517659988529</v>
+        <v>24.85566127924673</v>
       </c>
       <c r="C8" t="n">
-        <v>-23.08582935633193</v>
+        <v>27.99797150243616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-36.18966114515327</v>
+        <v>28.87373829142106</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.55088021101638</v>
+        <v>49.72358437668357</v>
       </c>
       <c r="C9" t="n">
-        <v>40.30744395283529</v>
+        <v>39.37153658673037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-30.2749545012394</v>
+        <v>-32.79404518205906</v>
       </c>
       <c r="B10" t="n">
-        <v>-15.43730542745405</v>
+        <v>28.68725572606453</v>
       </c>
       <c r="C10" t="n">
-        <v>22.32642037942619</v>
+        <v>-25.22555726596158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16.59253121624144</v>
+        <v>28.97707181674212</v>
       </c>
       <c r="B11" t="n">
-        <v>-31.05448518143872</v>
+        <v>33.13979502045592</v>
       </c>
       <c r="C11" t="n">
-        <v>32.77644699858126</v>
+        <v>31.21909631486658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>59.97948016048544</v>
+        <v>40.21141351741851</v>
       </c>
       <c r="B12" t="n">
-        <v>-40.71479924969077</v>
+        <v>-27.31872468103058</v>
       </c>
       <c r="C12" t="n">
-        <v>-19.97115762018582</v>
+        <v>-10.22510837530272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32.10605907444817</v>
+        <v>23.70704724109063</v>
       </c>
       <c r="B13" t="n">
-        <v>44.2768865042833</v>
+        <v>26.57024870288186</v>
       </c>
       <c r="C13" t="n">
-        <v>54.04798190826043</v>
+        <v>30.34215552311727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30.94404985968891</v>
+        <v>-41.25914183786157</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.24955666690564</v>
+        <v>-19.5550790537248</v>
       </c>
       <c r="C14" t="n">
-        <v>39.28928048315991</v>
+        <v>-27.69092664744842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-20.35424647934033</v>
+        <v>-24.17416032943832</v>
       </c>
       <c r="B15" t="n">
-        <v>-13.32812622688248</v>
+        <v>-36.50060833532513</v>
       </c>
       <c r="C15" t="n">
-        <v>7.324140771247646</v>
+        <v>23.13051541366574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-43.67505863256871</v>
+        <v>39.26578117635978</v>
       </c>
       <c r="B16" t="n">
-        <v>-33.15215220201541</v>
+        <v>-29.81943088161949</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.65709676637725</v>
+        <v>-23.84311566588908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-25.16348238058564</v>
+        <v>35.7842823110407</v>
       </c>
       <c r="B17" t="n">
-        <v>30.5421538607944</v>
+        <v>21.25650628690403</v>
       </c>
       <c r="C17" t="n">
-        <v>-24.51981068894159</v>
+        <v>24.51284494108597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>47.11139248506687</v>
+        <v>-26.58699022883509</v>
       </c>
       <c r="B18" t="n">
-        <v>-11.1925615588902</v>
+        <v>22.60264381269548</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.42781790865068</v>
+        <v>-27.64254630634456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.62769415036941</v>
+        <v>-32.0815284086268</v>
       </c>
       <c r="B19" t="n">
-        <v>-37.55345789535311</v>
+        <v>-24.90161807824615</v>
       </c>
       <c r="C19" t="n">
-        <v>38.62068308428304</v>
+        <v>-33.06105549045885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67.90617271654121</v>
+        <v>35.35474547333052</v>
       </c>
       <c r="B20" t="n">
-        <v>48.16441254676936</v>
+        <v>16.77584283787433</v>
       </c>
       <c r="C20" t="n">
-        <v>39.06851660877519</v>
+        <v>-37.87466564710842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.9668490132136</v>
+        <v>25.43671992384402</v>
       </c>
       <c r="B21" t="n">
-        <v>44.98678943531677</v>
+        <v>-20.46045798320027</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.69210148977946</v>
+        <v>-18.81493611092544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-14.34447405281503</v>
+        <v>24.79306874380361</v>
       </c>
       <c r="B22" t="n">
-        <v>-20.55479365905287</v>
+        <v>23.76248403259984</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.883389975829989</v>
+        <v>-21.8986659449052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-31.27513444385162</v>
+        <v>-24.67691799946698</v>
       </c>
       <c r="B23" t="n">
-        <v>4.765259325356813</v>
+        <v>-25.00855844925451</v>
       </c>
       <c r="C23" t="n">
-        <v>36.39844592147306</v>
+        <v>27.05360833364536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-16.81414663401012</v>
+        <v>-16.0125925509338</v>
       </c>
       <c r="B24" t="n">
-        <v>19.01474073186129</v>
+        <v>-17.16803364683299</v>
       </c>
       <c r="C24" t="n">
-        <v>-18.9272397050579</v>
+        <v>-20.95937325077121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>97.36817292198609</v>
+        <v>-15.10840610867082</v>
       </c>
       <c r="B25" t="n">
-        <v>-25.0482754835403</v>
+        <v>-31.0997829401045</v>
       </c>
       <c r="C25" t="n">
-        <v>-18.02544305368514</v>
+        <v>28.55338631866981</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.05009761567657</v>
+        <v>36.44496499953367</v>
       </c>
       <c r="B26" t="n">
-        <v>12.21612643127815</v>
+        <v>-23.84280315320069</v>
       </c>
       <c r="C26" t="n">
-        <v>54.01137944304092</v>
+        <v>-21.26438767778364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-44.96689607105898</v>
+        <v>-33.96441421269769</v>
       </c>
       <c r="B27" t="n">
-        <v>-26.24340004599455</v>
+        <v>-15.23676160106195</v>
       </c>
       <c r="C27" t="n">
-        <v>-40.79182646318701</v>
+        <v>-31.02627052420106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23.03418187089796</v>
+        <v>-21.67788631352812</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.073328745341009</v>
+        <v>-22.07172581223662</v>
       </c>
       <c r="C28" t="n">
-        <v>-22.14114010183835</v>
+        <v>24.04985570233585</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>58.63781108673655</v>
+        <v>-24.6468207099851</v>
       </c>
       <c r="B29" t="n">
-        <v>-42.27136464211095</v>
+        <v>33.45877338756891</v>
       </c>
       <c r="C29" t="n">
-        <v>-21.6564483132633</v>
+        <v>-37.09584444078383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-25.15139545839546</v>
+        <v>24.08805939691318</v>
       </c>
       <c r="B30" t="n">
-        <v>-13.51194026067521</v>
+        <v>25.63097952953423</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.543998715421713</v>
+        <v>42.09454974218787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>52.94741282563055</v>
+        <v>-23.22737811176963</v>
       </c>
       <c r="B31" t="n">
-        <v>-11.41459787509395</v>
+        <v>-25.80058771951248</v>
       </c>
       <c r="C31" t="n">
-        <v>57.54862412334651</v>
+        <v>21.0901698286251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-23.28253705673805</v>
+        <v>17.55302108721996</v>
       </c>
       <c r="B32" t="n">
-        <v>-43.21130751384787</v>
+        <v>27.17296832472121</v>
       </c>
       <c r="C32" t="n">
-        <v>27.64259318901791</v>
+        <v>-33.46878223889523</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-7.003697579299788</v>
+        <v>23.30579134199466</v>
       </c>
       <c r="B33" t="n">
-        <v>14.26562346727604</v>
+        <v>33.69095756388084</v>
       </c>
       <c r="C33" t="n">
-        <v>36.58184810878313</v>
+        <v>11.31831943978667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31.54606058077048</v>
+        <v>17.49515707805567</v>
       </c>
       <c r="B34" t="n">
-        <v>-12.38399728035244</v>
+        <v>34.36887104150335</v>
       </c>
       <c r="C34" t="n">
-        <v>-28.1681141983365</v>
+        <v>-19.23752761097312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-35.86272291896228</v>
+        <v>-35.23521649220217</v>
       </c>
       <c r="B35" t="n">
-        <v>-29.85891158836478</v>
+        <v>16.21248721550108</v>
       </c>
       <c r="C35" t="n">
-        <v>-29.22953409461316</v>
+        <v>25.0078471851672</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.406404024182504</v>
+        <v>-14.39227927533569</v>
       </c>
       <c r="B36" t="n">
-        <v>-26.12193789600187</v>
+        <v>-34.36102411230603</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.85097346257155</v>
+        <v>-28.53298429434557</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-29.02662731482722</v>
+        <v>-25.5039675099549</v>
       </c>
       <c r="B37" t="n">
-        <v>34.27061342774733</v>
+        <v>-23.61259454812503</v>
       </c>
       <c r="C37" t="n">
-        <v>-35.34504558351816</v>
+        <v>-20.31830052495314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18.84699003889897</v>
+        <v>28.33033417871641</v>
       </c>
       <c r="B38" t="n">
-        <v>-53.3972233482786</v>
+        <v>-16.28870397860062</v>
       </c>
       <c r="C38" t="n">
-        <v>-24.34905471720797</v>
+        <v>-25.63095868690404</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20.69385080694134</v>
+        <v>20.24865090321855</v>
       </c>
       <c r="B39" t="n">
-        <v>53.50445318607522</v>
+        <v>27.57697130217626</v>
       </c>
       <c r="C39" t="n">
-        <v>-29.83577867352239</v>
+        <v>22.7702786999058</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28.02962600255404</v>
+        <v>24.63465476492289</v>
       </c>
       <c r="B40" t="n">
-        <v>29.56529199626437</v>
+        <v>-9.420864324286038</v>
       </c>
       <c r="C40" t="n">
-        <v>-20.94688764606563</v>
+        <v>37.73877684010009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23.87252838761503</v>
+        <v>-24.09572145061677</v>
       </c>
       <c r="B41" t="n">
-        <v>60.04964058659914</v>
+        <v>-15.43054933357182</v>
       </c>
       <c r="C41" t="n">
-        <v>18.96129491627394</v>
+        <v>-10.60428985807709</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-21.94789405811856</v>
+        <v>41.37294294502717</v>
       </c>
       <c r="B42" t="n">
-        <v>15.66510223107362</v>
+        <v>28.94216139180007</v>
       </c>
       <c r="C42" t="n">
-        <v>67.9687468186988</v>
+        <v>18.52174700006458</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-27.90914303607023</v>
+        <v>19.19894481895372</v>
       </c>
       <c r="B43" t="n">
-        <v>-47.37694568758779</v>
+        <v>22.83399227619842</v>
       </c>
       <c r="C43" t="n">
-        <v>30.46735911745504</v>
+        <v>31.93384860900013</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37.538456640431</v>
+        <v>-25.44089276806323</v>
       </c>
       <c r="B44" t="n">
-        <v>-19.96813402133862</v>
+        <v>-18.87989217669452</v>
       </c>
       <c r="C44" t="n">
-        <v>27.48341267928668</v>
+        <v>-32.43735799323979</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-33.25662779563371</v>
+        <v>-27.16067311985272</v>
       </c>
       <c r="B45" t="n">
-        <v>28.76850960524169</v>
+        <v>46.53204227553245</v>
       </c>
       <c r="C45" t="n">
-        <v>53.99522666396008</v>
+        <v>-34.09099305035729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-32.70190505222801</v>
+        <v>-26.73448515689696</v>
       </c>
       <c r="B46" t="n">
-        <v>-8.097286625854172</v>
+        <v>16.66239531331074</v>
       </c>
       <c r="C46" t="n">
-        <v>-21.16657479611418</v>
+        <v>-20.45058241527424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>42.34029570012294</v>
+        <v>-33.03266928872854</v>
       </c>
       <c r="B47" t="n">
-        <v>63.17298588618626</v>
+        <v>-32.95248326605386</v>
       </c>
       <c r="C47" t="n">
-        <v>-25.31045810558972</v>
+        <v>-33.96823914293709</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-27.25688032495515</v>
+        <v>-18.74160435940805</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.19648225067116</v>
+        <v>7.832157102547125</v>
       </c>
       <c r="C48" t="n">
-        <v>12.77551280391345</v>
+        <v>-23.58111372140089</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32.91893950345208</v>
+        <v>-24.02383838937057</v>
       </c>
       <c r="B49" t="n">
-        <v>-10.49355976827461</v>
+        <v>16.97865695607781</v>
       </c>
       <c r="C49" t="n">
-        <v>-25.09274268530434</v>
+        <v>40.59597913830961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.310552226257148</v>
+        <v>15.52478969651225</v>
       </c>
       <c r="B50" t="n">
-        <v>-19.16131390046701</v>
+        <v>-34.21097388199087</v>
       </c>
       <c r="C50" t="n">
-        <v>4.049772380405829</v>
+        <v>17.88483590508062</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-26.56992939557767</v>
+        <v>16.37080831808717</v>
       </c>
       <c r="B51" t="n">
-        <v>-26.76399313209789</v>
+        <v>-25.65221241959517</v>
       </c>
       <c r="C51" t="n">
-        <v>-35.36554491801994</v>
+        <v>24.93667328281748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16.81850637168229</v>
+        <v>-17.90953943560631</v>
       </c>
       <c r="B52" t="n">
-        <v>11.04736056266145</v>
+        <v>-26.30930012995147</v>
       </c>
       <c r="C52" t="n">
-        <v>30.52690847894607</v>
+        <v>26.71264659372692</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-23.16654629648956</v>
+        <v>-23.03193050680096</v>
       </c>
       <c r="B53" t="n">
-        <v>-26.10524051141049</v>
+        <v>28.46601812789961</v>
       </c>
       <c r="C53" t="n">
-        <v>36.72236790362439</v>
+        <v>22.80272698403346</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-20.58346736551497</v>
+        <v>-15.16386003631683</v>
       </c>
       <c r="B54" t="n">
-        <v>-27.37762720997178</v>
+        <v>-28.85125413067347</v>
       </c>
       <c r="C54" t="n">
-        <v>29.45804366086662</v>
+        <v>24.60000358900462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28.52255043560368</v>
+        <v>13.71444658464408</v>
       </c>
       <c r="B55" t="n">
-        <v>-41.6986278036766</v>
+        <v>20.09917966451603</v>
       </c>
       <c r="C55" t="n">
-        <v>29.99116859059569</v>
+        <v>-24.6407160479617</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-37.6625749947141</v>
+        <v>18.97554584785358</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.93613838353249</v>
+        <v>16.09095027747619</v>
       </c>
       <c r="C56" t="n">
-        <v>-23.82401020375158</v>
+        <v>-21.79864474410958</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-18.28023587612348</v>
+        <v>-29.70160234273091</v>
       </c>
       <c r="B57" t="n">
-        <v>-35.6203407436928</v>
+        <v>29.53862775838988</v>
       </c>
       <c r="C57" t="n">
-        <v>-34.79726560335845</v>
+        <v>26.63020979499709</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-26.98322736509185</v>
+        <v>26.10818269131106</v>
       </c>
       <c r="B58" t="n">
-        <v>-15.66880770973535</v>
+        <v>18.71761501555099</v>
       </c>
       <c r="C58" t="n">
-        <v>9.034117965050061</v>
+        <v>-13.34857136168084</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>54.41684286939926</v>
+        <v>-15.31713599961265</v>
       </c>
       <c r="B59" t="n">
-        <v>13.45203654587028</v>
+        <v>-36.10755796372293</v>
       </c>
       <c r="C59" t="n">
-        <v>7.079303699487307</v>
+        <v>-26.50672809908363</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-21.51868235257002</v>
+        <v>29.49013382312967</v>
       </c>
       <c r="B60" t="n">
-        <v>27.49182725044187</v>
+        <v>21.88494332238669</v>
       </c>
       <c r="C60" t="n">
-        <v>9.339322714246977</v>
+        <v>-37.07759443255333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-17.52671956820805</v>
+        <v>-32.44732105852101</v>
       </c>
       <c r="B61" t="n">
-        <v>-26.85418984577769</v>
+        <v>-23.49614734241734</v>
       </c>
       <c r="C61" t="n">
-        <v>4.515241804503165</v>
+        <v>39.94827627398895</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.414276743600434</v>
+        <v>-28.04751700482633</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.919914491997546</v>
+        <v>12.93751623080434</v>
       </c>
       <c r="C62" t="n">
-        <v>16.525878374327</v>
+        <v>-17.55379490763821</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.190051582242957</v>
+        <v>-26.07345517959497</v>
       </c>
       <c r="B63" t="n">
-        <v>-25.9166019986819</v>
+        <v>-18.80454479946117</v>
       </c>
       <c r="C63" t="n">
-        <v>6.373197593680468</v>
+        <v>30.90504217495471</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-28.90097418368632</v>
+        <v>33.89579803599057</v>
       </c>
       <c r="B64" t="n">
-        <v>-19.49730990606221</v>
+        <v>9.832803715284655</v>
       </c>
       <c r="C64" t="n">
-        <v>-32.8150140392106</v>
+        <v>-24.54755379923213</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-25.178136370608</v>
+        <v>31.41129668798909</v>
       </c>
       <c r="B65" t="n">
-        <v>-25.17884343147184</v>
+        <v>10.48668053311298</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.165616342368557</v>
+        <v>-38.022995834134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-20.54740960127873</v>
+        <v>-34.66447480592225</v>
       </c>
       <c r="B66" t="n">
-        <v>16.68332665476173</v>
+        <v>-11.97382613891245</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.15689112436683</v>
+        <v>-28.94334572271291</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35.58993710050972</v>
+        <v>-15.12641360165425</v>
       </c>
       <c r="B67" t="n">
-        <v>-25.44909332166344</v>
+        <v>-25.38034156065364</v>
       </c>
       <c r="C67" t="n">
-        <v>-29.10128504441456</v>
+        <v>25.92919310899032</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-30.33414473644665</v>
+        <v>-25.21366461340204</v>
       </c>
       <c r="B68" t="n">
-        <v>19.01993175332791</v>
+        <v>32.02467138746816</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.002834690509943</v>
+        <v>-41.86000286647407</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.34156870956166</v>
+        <v>-28.6871958660735</v>
       </c>
       <c r="B69" t="n">
-        <v>-18.50741396194873</v>
+        <v>34.16335364766815</v>
       </c>
       <c r="C69" t="n">
-        <v>44.64403970449345</v>
+        <v>-33.90257842014875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-9.363460118165152</v>
+        <v>-28.32755171329902</v>
       </c>
       <c r="B70" t="n">
-        <v>64.87541597221177</v>
+        <v>-24.02204622752851</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.331733620788885</v>
+        <v>-28.26752726074332</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21.0083696087647</v>
+        <v>38.03471738674423</v>
       </c>
       <c r="B71" t="n">
-        <v>-20.84338221688969</v>
+        <v>-19.67603221970208</v>
       </c>
       <c r="C71" t="n">
-        <v>38.77714266141179</v>
+        <v>34.76948361897897</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.8398164052963422</v>
+        <v>-25.37669951261035</v>
       </c>
       <c r="B72" t="n">
-        <v>-37.51185411350869</v>
+        <v>-15.03180782791831</v>
       </c>
       <c r="C72" t="n">
-        <v>15.09367764814275</v>
+        <v>-15.90897136057878</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-32.27262815119752</v>
+        <v>24.43119725370511</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.132120191557509</v>
+        <v>28.25680901716197</v>
       </c>
       <c r="C73" t="n">
-        <v>5.949857567669411</v>
+        <v>27.8237553262151</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-48.18553792184769</v>
+        <v>18.46960873212394</v>
       </c>
       <c r="B74" t="n">
-        <v>-27.73062129587129</v>
+        <v>-38.137729644767</v>
       </c>
       <c r="C74" t="n">
-        <v>-33.51788608578349</v>
+        <v>29.63622972660443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16.01214677309638</v>
+        <v>35.88121782843298</v>
       </c>
       <c r="B75" t="n">
-        <v>44.13941061176916</v>
+        <v>18.58841768555258</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.4567212373522</v>
+        <v>36.05745580545204</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-12.62193749508432</v>
+        <v>41.67613836831489</v>
       </c>
       <c r="B76" t="n">
-        <v>-35.03928362836565</v>
+        <v>16.32591982694154</v>
       </c>
       <c r="C76" t="n">
-        <v>-22.42210667583495</v>
+        <v>21.52738217969436</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-18.40865024562311</v>
+        <v>-17.88491216844616</v>
       </c>
       <c r="B77" t="n">
-        <v>-26.22659649707395</v>
+        <v>-18.91137512960055</v>
       </c>
       <c r="C77" t="n">
-        <v>-21.62430264688221</v>
+        <v>-38.32187930104797</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>74.5705560353567</v>
+        <v>31.06059930151049</v>
       </c>
       <c r="B78" t="n">
-        <v>20.31996346270809</v>
+        <v>-29.94209267845416</v>
       </c>
       <c r="C78" t="n">
-        <v>51.68604655954975</v>
+        <v>24.87515040362809</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-26.30140711237244</v>
+        <v>-18.08103240950157</v>
       </c>
       <c r="B79" t="n">
-        <v>18.74668669614277</v>
+        <v>-31.33839919408752</v>
       </c>
       <c r="C79" t="n">
-        <v>-15.23195338411946</v>
+        <v>21.11510404346648</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-39.71240023762765</v>
+        <v>26.29550488724907</v>
       </c>
       <c r="B80" t="n">
-        <v>-17.11707685283386</v>
+        <v>-8.525090191501306</v>
       </c>
       <c r="C80" t="n">
-        <v>33.35583136124299</v>
+        <v>31.08656414446683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-39.79904448700818</v>
+        <v>-33.59940474038091</v>
       </c>
       <c r="B81" t="n">
-        <v>-31.05718109476514</v>
+        <v>17.95218057922281</v>
       </c>
       <c r="C81" t="n">
-        <v>-21.21973738016743</v>
+        <v>28.21235614136205</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-39.1345236837789</v>
+        <v>-23.05239190404109</v>
       </c>
       <c r="B82" t="n">
-        <v>57.85036718573863</v>
+        <v>-19.56124290626073</v>
       </c>
       <c r="C82" t="n">
-        <v>38.70962822609446</v>
+        <v>-27.42080339747007</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>22.63766945581618</v>
+        <v>29.53909213301627</v>
       </c>
       <c r="B83" t="n">
-        <v>18.85923802243319</v>
+        <v>-22.22889146734255</v>
       </c>
       <c r="C83" t="n">
-        <v>46.4302569791963</v>
+        <v>-27.70751759026985</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.660493012314019</v>
+        <v>-24.22986644490105</v>
       </c>
       <c r="B84" t="n">
-        <v>-14.52340838239022</v>
+        <v>-21.97738037910169</v>
       </c>
       <c r="C84" t="n">
-        <v>14.34647383285012</v>
+        <v>16.6521192603962</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-37.9625432526429</v>
+        <v>18.59927020197612</v>
       </c>
       <c r="B85" t="n">
-        <v>-28.80038513633534</v>
+        <v>19.53461778296962</v>
       </c>
       <c r="C85" t="n">
-        <v>-17.04788232608524</v>
+        <v>19.27422980377667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-32.50363021067052</v>
+        <v>31.79333935816448</v>
       </c>
       <c r="B86" t="n">
-        <v>-31.79567870492727</v>
+        <v>23.53382670460452</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.36286170972843</v>
+        <v>-22.54758350155888</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>53.0720038962623</v>
+        <v>-22.53228799508829</v>
       </c>
       <c r="B87" t="n">
-        <v>-27.2060718527358</v>
+        <v>30.3366699461095</v>
       </c>
       <c r="C87" t="n">
-        <v>30.40657664059466</v>
+        <v>-21.80879293095072</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-25.68094184900231</v>
+        <v>19.17266600103339</v>
       </c>
       <c r="B88" t="n">
-        <v>-29.44983854358227</v>
+        <v>-14.58030756446409</v>
       </c>
       <c r="C88" t="n">
-        <v>-34.04720495833147</v>
+        <v>13.13571765893596</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.353651521229018</v>
+        <v>26.89056116615016</v>
       </c>
       <c r="B89" t="n">
-        <v>38.92189657308783</v>
+        <v>26.16530655204965</v>
       </c>
       <c r="C89" t="n">
-        <v>-18.33698398219439</v>
+        <v>33.16706021423293</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>53.87314083875768</v>
+        <v>34.38510802988453</v>
       </c>
       <c r="B90" t="n">
-        <v>-32.10057017204898</v>
+        <v>20.52705251150707</v>
       </c>
       <c r="C90" t="n">
-        <v>-22.97371091439961</v>
+        <v>13.52368901744578</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.91760135302605</v>
+        <v>-28.72991906211781</v>
       </c>
       <c r="B91" t="n">
-        <v>-8.944277219439506</v>
+        <v>23.82662327224757</v>
       </c>
       <c r="C91" t="n">
-        <v>30.85790365217771</v>
+        <v>-24.21965508367148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>28.57400795488257</v>
+        <v>-20.9345242894935</v>
       </c>
       <c r="B92" t="n">
-        <v>-24.03159016975886</v>
+        <v>-17.78511768141568</v>
       </c>
       <c r="C92" t="n">
-        <v>9.092103271128563</v>
+        <v>-28.49374619267556</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>14.06792472799023</v>
+        <v>19.47832363368728</v>
       </c>
       <c r="B93" t="n">
-        <v>-20.5791626221727</v>
+        <v>-34.28531265645561</v>
       </c>
       <c r="C93" t="n">
-        <v>22.50240749953752</v>
+        <v>-17.49209725710556</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>18.13269487295002</v>
+        <v>-32.82375566370158</v>
       </c>
       <c r="B94" t="n">
-        <v>2.925693999119714</v>
+        <v>-24.41656518104464</v>
       </c>
       <c r="C94" t="n">
-        <v>30.23856619740852</v>
+        <v>21.54845782103217</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>46.86664223347562</v>
+        <v>-24.59304067776142</v>
       </c>
       <c r="B95" t="n">
-        <v>49.80822651038299</v>
+        <v>22.2507846139534</v>
       </c>
       <c r="C95" t="n">
-        <v>21.59393321287794</v>
+        <v>31.09497832038262</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33.48586039872318</v>
+        <v>-13.89332875634557</v>
       </c>
       <c r="B96" t="n">
-        <v>-25.38940590157909</v>
+        <v>-25.5180841373085</v>
       </c>
       <c r="C96" t="n">
-        <v>-29.77291724265334</v>
+        <v>39.80073262006745</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>89.78937112855934</v>
+        <v>10.93307704751205</v>
       </c>
       <c r="B97" t="n">
-        <v>63.92176694970645</v>
+        <v>-29.20155428638903</v>
       </c>
       <c r="C97" t="n">
-        <v>28.7914953217806</v>
+        <v>27.3751513857652</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>27.60725356566427</v>
+        <v>36.89963752965387</v>
       </c>
       <c r="B98" t="n">
-        <v>34.32925580543224</v>
+        <v>-38.75976515853127</v>
       </c>
       <c r="C98" t="n">
-        <v>10.29665505625752</v>
+        <v>18.09780589323266</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>37.68009821136668</v>
+        <v>36.25781445642027</v>
       </c>
       <c r="B99" t="n">
-        <v>-25.48688893134647</v>
+        <v>-21.50151323550848</v>
       </c>
       <c r="C99" t="n">
-        <v>31.72301547489819</v>
+        <v>21.14353983200864</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>46.26067625294747</v>
+        <v>-23.02727456251356</v>
       </c>
       <c r="B100" t="n">
-        <v>42.17869234953726</v>
+        <v>-23.01410361093709</v>
       </c>
       <c r="C100" t="n">
-        <v>-18.13197851844833</v>
+        <v>38.47843732252085</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-26.23910983542155</v>
+        <v>27.95938945720281</v>
       </c>
       <c r="B101" t="n">
-        <v>-27.79254562594335</v>
+        <v>31.87295226742569</v>
       </c>
       <c r="C101" t="n">
-        <v>-27.39931064195738</v>
+        <v>31.36130215460668</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-27.14959948708059</v>
+        <v>25.65334219205943</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.76367255382091</v>
+        <v>-18.56352669778847</v>
       </c>
       <c r="C102" t="n">
-        <v>-24.1309888418648</v>
+        <v>-17.05171545563948</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28.33251831860724</v>
+        <v>23.64084872395376</v>
       </c>
       <c r="B103" t="n">
-        <v>39.75396554793893</v>
+        <v>-17.97527774415066</v>
       </c>
       <c r="C103" t="n">
-        <v>10.9682499163545</v>
+        <v>-31.02458819506953</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>7.25201718816719</v>
+        <v>13.85601098365414</v>
       </c>
       <c r="B104" t="n">
-        <v>21.31082049288122</v>
+        <v>16.28386814886912</v>
       </c>
       <c r="C104" t="n">
-        <v>47.51178490002575</v>
+        <v>-8.75814608999811</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-13.01407883831046</v>
+        <v>19.19560415010082</v>
       </c>
       <c r="B105" t="n">
-        <v>55.08751159220095</v>
+        <v>23.73191824049319</v>
       </c>
       <c r="C105" t="n">
-        <v>-35.12785162417559</v>
+        <v>48.4641642386818</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-27.40785613312886</v>
+        <v>34.12505837964189</v>
       </c>
       <c r="B106" t="n">
-        <v>4.741479419992017</v>
+        <v>-30.59592216736299</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.569427720958195</v>
+        <v>30.19668624952465</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-17.4706581942759</v>
+        <v>-33.26884115323738</v>
       </c>
       <c r="B107" t="n">
-        <v>37.42710222864365</v>
+        <v>33.01257136939453</v>
       </c>
       <c r="C107" t="n">
-        <v>8.772281542325155</v>
+        <v>22.805738840596</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-12.81124616409586</v>
+        <v>-38.64963712706127</v>
       </c>
       <c r="B108" t="n">
-        <v>-32.05691435249793</v>
+        <v>-16.03611397150872</v>
       </c>
       <c r="C108" t="n">
-        <v>-22.88042801331646</v>
+        <v>26.64305711875948</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>27.87194434270242</v>
+        <v>25.21741633937382</v>
       </c>
       <c r="B109" t="n">
-        <v>-32.87481735604639</v>
+        <v>-14.40374694652903</v>
       </c>
       <c r="C109" t="n">
-        <v>-35.37747800354828</v>
+        <v>34.75194699558726</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>30.24817834772102</v>
+        <v>-30.54119555002338</v>
       </c>
       <c r="B110" t="n">
-        <v>-26.46092756799829</v>
+        <v>-14.11417177782195</v>
       </c>
       <c r="C110" t="n">
-        <v>-30.91690851513667</v>
+        <v>38.07487248710546</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-7.257572387649229</v>
+        <v>28.27523594998747</v>
       </c>
       <c r="B111" t="n">
-        <v>-27.67209603710505</v>
+        <v>17.75204385164943</v>
       </c>
       <c r="C111" t="n">
-        <v>-28.22317857483777</v>
+        <v>37.3983547834103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-34.42658787348776</v>
+        <v>-26.78381065795629</v>
       </c>
       <c r="B112" t="n">
-        <v>29.53429409011245</v>
+        <v>-28.61498560144127</v>
       </c>
       <c r="C112" t="n">
-        <v>48.56372270990336</v>
+        <v>34.66944990340911</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.556459671498255</v>
+        <v>19.17184453750839</v>
       </c>
       <c r="B113" t="n">
-        <v>68.48194050490541</v>
+        <v>26.06207181139647</v>
       </c>
       <c r="C113" t="n">
-        <v>9.450366520675372</v>
+        <v>29.89873632541935</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17.37358504403276</v>
+        <v>33.95688402130931</v>
       </c>
       <c r="B114" t="n">
-        <v>-38.96145274270557</v>
+        <v>-18.12710075723101</v>
       </c>
       <c r="C114" t="n">
-        <v>1.02017652597841</v>
+        <v>23.4902218699881</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-27.12887123123375</v>
+        <v>-9.189795743310327</v>
       </c>
       <c r="B115" t="n">
-        <v>29.51954754604056</v>
+        <v>-13.78464504489856</v>
       </c>
       <c r="C115" t="n">
-        <v>11.9825117527586</v>
+        <v>-30.80231274346261</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>44.2503598230879</v>
+        <v>27.50040077818352</v>
       </c>
       <c r="B116" t="n">
-        <v>-20.61849646679117</v>
+        <v>-35.43837979633584</v>
       </c>
       <c r="C116" t="n">
-        <v>-16.11327817921849</v>
+        <v>-33.69737747397552</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-30.29657872884468</v>
+        <v>-9.543509832492111</v>
       </c>
       <c r="B117" t="n">
-        <v>-21.77532516077885</v>
+        <v>21.47965138411169</v>
       </c>
       <c r="C117" t="n">
-        <v>-20.5815199638975</v>
+        <v>-17.80004489158341</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-21.28236564205539</v>
+        <v>-25.01124545615749</v>
       </c>
       <c r="B118" t="n">
-        <v>29.84940072263878</v>
+        <v>38.58701675577124</v>
       </c>
       <c r="C118" t="n">
-        <v>-23.3777121033373</v>
+        <v>29.37476766733712</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>21.28634597276583</v>
+        <v>16.4601163312774</v>
       </c>
       <c r="B119" t="n">
-        <v>-24.84434056923282</v>
+        <v>-22.48972271453206</v>
       </c>
       <c r="C119" t="n">
-        <v>-36.31732623076594</v>
+        <v>38.01824874879486</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>12.56655311763327</v>
+        <v>31.76614960139213</v>
       </c>
       <c r="B120" t="n">
-        <v>74.85386001045576</v>
+        <v>-35.49007828865323</v>
       </c>
       <c r="C120" t="n">
-        <v>-33.05723890496897</v>
+        <v>-20.69384006393529</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15.67453165288509</v>
+        <v>33.58704827214745</v>
       </c>
       <c r="B121" t="n">
-        <v>5.712273603850444</v>
+        <v>16.91427069854353</v>
       </c>
       <c r="C121" t="n">
-        <v>15.82236194237784</v>
+        <v>29.96665938641908</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.304779746755625</v>
+        <v>-32.3373965288976</v>
       </c>
       <c r="B122" t="n">
-        <v>-8.139774598347053</v>
+        <v>20.3192740862319</v>
       </c>
       <c r="C122" t="n">
-        <v>-35.64862363098922</v>
+        <v>26.30581271458297</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-3.563285014485758</v>
+        <v>44.02215245763783</v>
       </c>
       <c r="B123" t="n">
-        <v>20.01099863785671</v>
+        <v>22.19384545089753</v>
       </c>
       <c r="C123" t="n">
-        <v>33.58249273329978</v>
+        <v>39.80101908887703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>34.70357240650437</v>
+        <v>-15.21743628992135</v>
       </c>
       <c r="B124" t="n">
-        <v>32.18447247222488</v>
+        <v>12.12768307117885</v>
       </c>
       <c r="C124" t="n">
-        <v>-32.58040312875779</v>
+        <v>31.42479518699516</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-24.53342404082135</v>
+        <v>31.74355146859171</v>
       </c>
       <c r="B125" t="n">
-        <v>10.85204876053347</v>
+        <v>40.78721474616851</v>
       </c>
       <c r="C125" t="n">
-        <v>-24.54768075153248</v>
+        <v>-20.47071328100993</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.910028765718996</v>
+        <v>-17.02953568229843</v>
       </c>
       <c r="B126" t="n">
-        <v>-25.70839824907078</v>
+        <v>-32.88771191684449</v>
       </c>
       <c r="C126" t="n">
-        <v>-33.75561255825301</v>
+        <v>-17.79990253061421</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-21.16781887013737</v>
+        <v>35.98425290942781</v>
       </c>
       <c r="B127" t="n">
-        <v>23.90424975736903</v>
+        <v>-25.96291307124019</v>
       </c>
       <c r="C127" t="n">
-        <v>49.28123180160465</v>
+        <v>28.2757644860832</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-17.35722972272933</v>
+        <v>20.75660154737452</v>
       </c>
       <c r="B128" t="n">
-        <v>-25.21021446280356</v>
+        <v>37.34798805839068</v>
       </c>
       <c r="C128" t="n">
-        <v>59.01020352442795</v>
+        <v>26.494835113223</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-27.49321194486155</v>
+        <v>33.56001505972897</v>
       </c>
       <c r="B129" t="n">
-        <v>-7.402284047467978</v>
+        <v>22.28177671246058</v>
       </c>
       <c r="C129" t="n">
-        <v>9.720090147098036</v>
+        <v>24.43056666258177</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-27.7496045370539</v>
+        <v>-30.11149078862709</v>
       </c>
       <c r="B130" t="n">
-        <v>45.01779591312767</v>
+        <v>-29.68209188731834</v>
       </c>
       <c r="C130" t="n">
-        <v>-17.33744846391027</v>
+        <v>20.88001665770463</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>46.16293631609528</v>
+        <v>-28.45605242903844</v>
       </c>
       <c r="B131" t="n">
-        <v>10.57925574566061</v>
+        <v>-32.85002697340285</v>
       </c>
       <c r="C131" t="n">
-        <v>33.43930800395697</v>
+        <v>-28.19839732922811</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>51.6336661634163</v>
+        <v>-18.66708181600456</v>
       </c>
       <c r="B132" t="n">
-        <v>-24.09523805591432</v>
+        <v>-40.05601307444395</v>
       </c>
       <c r="C132" t="n">
-        <v>4.127590002101265</v>
+        <v>-28.95381515900465</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>41.12577278333012</v>
+        <v>-17.82375157104509</v>
       </c>
       <c r="B133" t="n">
-        <v>-40.38856387751335</v>
+        <v>-22.85194107838181</v>
       </c>
       <c r="C133" t="n">
-        <v>-31.28415105901887</v>
+        <v>-29.7010609697844</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>38.21085261874558</v>
+        <v>28.87709688411516</v>
       </c>
       <c r="B134" t="n">
-        <v>21.11061555100677</v>
+        <v>-17.49239882490156</v>
       </c>
       <c r="C134" t="n">
-        <v>-24.76613622506827</v>
+        <v>-25.1764705329349</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-11.74834468215503</v>
+        <v>-33.12456211187473</v>
       </c>
       <c r="B135" t="n">
-        <v>-15.68604897337963</v>
+        <v>22.4835553319957</v>
       </c>
       <c r="C135" t="n">
-        <v>-17.36149196679855</v>
+        <v>22.50889112484075</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-27.77851559956665</v>
+        <v>-23.19440927817262</v>
       </c>
       <c r="B136" t="n">
-        <v>-15.85347096923444</v>
+        <v>-25.34902309264672</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.069961220647518</v>
+        <v>42.17286476331059</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-29.54408308765769</v>
+        <v>21.21928524224937</v>
       </c>
       <c r="B137" t="n">
-        <v>-31.47627905095935</v>
+        <v>26.35959799456488</v>
       </c>
       <c r="C137" t="n">
-        <v>-27.18120662411851</v>
+        <v>-28.53327416542792</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8.931894913307566</v>
+        <v>-25.28492651771539</v>
       </c>
       <c r="B138" t="n">
-        <v>-11.62292662967659</v>
+        <v>-47.01119970323585</v>
       </c>
       <c r="C138" t="n">
-        <v>-18.34573455239682</v>
+        <v>-19.39418036770334</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-34.00182536353547</v>
+        <v>-29.66456542463537</v>
       </c>
       <c r="B139" t="n">
-        <v>-15.80698782632866</v>
+        <v>-34.55261206754834</v>
       </c>
       <c r="C139" t="n">
-        <v>-30.49406650642617</v>
+        <v>-25.05879973839206</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-30.87262192005182</v>
+        <v>35.93444053902553</v>
       </c>
       <c r="B140" t="n">
-        <v>59.05705353859759</v>
+        <v>26.28825268752687</v>
       </c>
       <c r="C140" t="n">
-        <v>-31.28517883593106</v>
+        <v>27.43008877800908</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>17.62015409706806</v>
+        <v>-12.89242244298779</v>
       </c>
       <c r="B141" t="n">
-        <v>11.18172274935799</v>
+        <v>-27.83191125676403</v>
       </c>
       <c r="C141" t="n">
-        <v>64.93409879956172</v>
+        <v>-23.63688360616474</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-13.41738762002862</v>
+        <v>-21.91774898321145</v>
       </c>
       <c r="B142" t="n">
-        <v>42.84215042949996</v>
+        <v>18.12425874135946</v>
       </c>
       <c r="C142" t="n">
-        <v>16.42792636327353</v>
+        <v>-14.59479719582862</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-27.1272903862842</v>
+        <v>-7.472511031256037</v>
       </c>
       <c r="B143" t="n">
-        <v>-25.49814033688725</v>
+        <v>32.23494285978413</v>
       </c>
       <c r="C143" t="n">
-        <v>21.74923759669861</v>
+        <v>10.81951964529738</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>47.6999958924388</v>
+        <v>-33.48272651816688</v>
       </c>
       <c r="B144" t="n">
-        <v>49.29216544287078</v>
+        <v>-19.6541525997128</v>
       </c>
       <c r="C144" t="n">
-        <v>12.50126105312417</v>
+        <v>-22.17638835224716</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2294700607664189</v>
+        <v>-24.84039776395745</v>
       </c>
       <c r="B145" t="n">
-        <v>-25.58661871360933</v>
+        <v>-20.43721087839068</v>
       </c>
       <c r="C145" t="n">
-        <v>-33.51120338660571</v>
+        <v>-25.56852029259356</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-27.86867224348304</v>
+        <v>3.69429143945766</v>
       </c>
       <c r="B146" t="n">
-        <v>-18.132453487392</v>
+        <v>29.31221704595037</v>
       </c>
       <c r="C146" t="n">
-        <v>-17.88558037480544</v>
+        <v>-13.08257611561951</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-28.86374302479343</v>
+        <v>-22.18036508473502</v>
       </c>
       <c r="B147" t="n">
-        <v>27.67916950335169</v>
+        <v>22.66547933677747</v>
       </c>
       <c r="C147" t="n">
-        <v>-10.81958549127988</v>
+        <v>-17.73069740905017</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-16.83878504051926</v>
+        <v>25.58182910944064</v>
       </c>
       <c r="B148" t="n">
-        <v>-13.80699138415315</v>
+        <v>-37.21542910897416</v>
       </c>
       <c r="C148" t="n">
-        <v>-10.75306905892078</v>
+        <v>21.34166661014767</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-25.75029933127001</v>
+        <v>22.64087792697909</v>
       </c>
       <c r="B149" t="n">
-        <v>26.72941941973295</v>
+        <v>13.53822778706065</v>
       </c>
       <c r="C149" t="n">
-        <v>-29.23023217968829</v>
+        <v>23.75936342064188</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>28.1261054479347</v>
+        <v>21.94286822334514</v>
       </c>
       <c r="B150" t="n">
-        <v>-30.04022267573682</v>
+        <v>12.50794937359713</v>
       </c>
       <c r="C150" t="n">
-        <v>-25.55636180117029</v>
+        <v>23.31911200687807</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-25.79074922517958</v>
+        <v>-14.17274484227934</v>
       </c>
       <c r="B151" t="n">
-        <v>24.11787476654725</v>
+        <v>-21.45611481261473</v>
       </c>
       <c r="C151" t="n">
-        <v>18.44031429276683</v>
+        <v>-20.58590497756234</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-34.30198338949325</v>
+        <v>41.5020076587555</v>
       </c>
       <c r="B2" t="n">
-        <v>35.98975465327111</v>
+        <v>-24.46102657289419</v>
       </c>
       <c r="C2" t="n">
-        <v>51.86382122061885</v>
+        <v>24.61837056353189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-31.25468585996142</v>
+        <v>19.61692663224457</v>
       </c>
       <c r="B3" t="n">
-        <v>43.0582084098305</v>
+        <v>-2.580074276907311</v>
       </c>
       <c r="C3" t="n">
-        <v>-30.81756999775997</v>
+        <v>44.32125883973999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71.92314023422013</v>
+        <v>-20.36497859965744</v>
       </c>
       <c r="B4" t="n">
-        <v>27.97606131298955</v>
+        <v>20.70969786815974</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.61076755410861</v>
+        <v>24.44705349040756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-24.57577884087607</v>
+        <v>37.5306547626454</v>
       </c>
       <c r="B5" t="n">
-        <v>-41.76512316443255</v>
+        <v>-28.6455526797573</v>
       </c>
       <c r="C5" t="n">
-        <v>32.5020452965042</v>
+        <v>35.11120726589672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-13.72201593085202</v>
+        <v>14.37146857355796</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.85586798545318</v>
+        <v>29.44346878671452</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6473194152682</v>
+        <v>-36.01576699940051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37.3581328546319</v>
+        <v>-15.83736208409268</v>
       </c>
       <c r="B7" t="n">
-        <v>-29.90120011412999</v>
+        <v>28.07307339166277</v>
       </c>
       <c r="C7" t="n">
-        <v>-26.88219989332989</v>
+        <v>14.64750877922912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28.29345189051617</v>
+        <v>19.92282210531233</v>
       </c>
       <c r="B8" t="n">
-        <v>21.81087839982685</v>
+        <v>21.66992747977883</v>
       </c>
       <c r="C8" t="n">
-        <v>58.26283485715426</v>
+        <v>29.44190743778627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-25.96965155626188</v>
+        <v>-24.03560067531599</v>
       </c>
       <c r="B9" t="n">
-        <v>-29.83945245356795</v>
+        <v>-27.26998178845141</v>
       </c>
       <c r="C9" t="n">
-        <v>-30.1000093829911</v>
+        <v>34.92965688476449</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85.12205386270261</v>
+        <v>22.33945773133309</v>
       </c>
       <c r="B10" t="n">
-        <v>-24.60811320555144</v>
+        <v>-31.6779431352028</v>
       </c>
       <c r="C10" t="n">
-        <v>29.03356676983188</v>
+        <v>26.15804557087469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-49.62274539533141</v>
+        <v>-27.29761846940431</v>
       </c>
       <c r="B11" t="n">
-        <v>-10.01401236219523</v>
+        <v>-13.5086087727627</v>
       </c>
       <c r="C11" t="n">
-        <v>-26.14925285146598</v>
+        <v>-28.09797962154942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.39372694229822</v>
+        <v>25.70529777691211</v>
       </c>
       <c r="B12" t="n">
-        <v>6.031238304385296</v>
+        <v>28.27437183626114</v>
       </c>
       <c r="C12" t="n">
-        <v>-31.63655383744237</v>
+        <v>44.17611628080214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>33.34071661953704</v>
+        <v>29.93100662007787</v>
       </c>
       <c r="B13" t="n">
-        <v>47.08503024247858</v>
+        <v>-15.19167536563474</v>
       </c>
       <c r="C13" t="n">
-        <v>4.202729819102365</v>
+        <v>-21.60673340078487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.718466761288363</v>
+        <v>22.85541064245388</v>
       </c>
       <c r="B14" t="n">
-        <v>-30.80089711546425</v>
+        <v>-21.43125684985412</v>
       </c>
       <c r="C14" t="n">
-        <v>62.02966143874089</v>
+        <v>45.35152259268943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.613503269655453</v>
+        <v>-17.68602114276757</v>
       </c>
       <c r="B15" t="n">
-        <v>17.76582103817333</v>
+        <v>-35.46921163650983</v>
       </c>
       <c r="C15" t="n">
-        <v>-26.4717723185604</v>
+        <v>28.65205064944395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-35.39416533987703</v>
+        <v>-39.95912867199031</v>
       </c>
       <c r="B16" t="n">
-        <v>-33.14057081259241</v>
+        <v>21.82289604775774</v>
       </c>
       <c r="C16" t="n">
-        <v>9.921626295746018</v>
+        <v>27.53509605875079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>69.92568465196223</v>
+        <v>20.73870900660966</v>
       </c>
       <c r="B17" t="n">
-        <v>23.43684400506151</v>
+        <v>-21.17455816047231</v>
       </c>
       <c r="C17" t="n">
-        <v>-18.34401261676818</v>
+        <v>-19.15947167112336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-24.71451138300207</v>
+        <v>20.58601125766438</v>
       </c>
       <c r="B18" t="n">
-        <v>-36.70084880920273</v>
+        <v>-33.34045073748731</v>
       </c>
       <c r="C18" t="n">
-        <v>-30.26101735294264</v>
+        <v>-33.29802944948553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-10.83251494374342</v>
+        <v>30.0438494302395</v>
       </c>
       <c r="B19" t="n">
-        <v>-31.54694313562849</v>
+        <v>32.69874361987221</v>
       </c>
       <c r="C19" t="n">
-        <v>48.56745764048964</v>
+        <v>-19.16775670236051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-30.03064661432091</v>
+        <v>25.856455142629</v>
       </c>
       <c r="B20" t="n">
-        <v>-19.1042080894558</v>
+        <v>-32.53465770105951</v>
       </c>
       <c r="C20" t="n">
-        <v>68.83785032017032</v>
+        <v>-34.6361250285392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.40754072639606</v>
+        <v>40.5428245449118</v>
       </c>
       <c r="B21" t="n">
-        <v>25.16322817047835</v>
+        <v>-23.01135252102409</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.01234937577994</v>
+        <v>28.64739518830419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-11.87671453726418</v>
+        <v>-30.99390462004214</v>
       </c>
       <c r="B22" t="n">
-        <v>-32.15254939590622</v>
+        <v>-22.87690411850399</v>
       </c>
       <c r="C22" t="n">
-        <v>-31.71639241184736</v>
+        <v>36.50109603481859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.15327846301639</v>
+        <v>-37.08707589022793</v>
       </c>
       <c r="B23" t="n">
-        <v>15.31739568604617</v>
+        <v>-35.90009462105074</v>
       </c>
       <c r="C23" t="n">
-        <v>25.47424134364938</v>
+        <v>-27.5576701864007</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-21.73513704836416</v>
+        <v>21.96827533945553</v>
       </c>
       <c r="B24" t="n">
-        <v>-29.00273828768729</v>
+        <v>23.03096215394131</v>
       </c>
       <c r="C24" t="n">
-        <v>-31.62198233644655</v>
+        <v>16.86537169461488</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.68728903588074</v>
+        <v>-27.19121985274022</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.596286841448928</v>
+        <v>22.50835556983011</v>
       </c>
       <c r="C25" t="n">
-        <v>-39.46028366338557</v>
+        <v>30.33560302075882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.67960391288277</v>
+        <v>26.42830200872706</v>
       </c>
       <c r="B26" t="n">
-        <v>-24.40380195180991</v>
+        <v>28.72935857627979</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.63235623967913</v>
+        <v>-45.52942616007517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.83411524144314</v>
+        <v>35.84093069764015</v>
       </c>
       <c r="B27" t="n">
-        <v>-16.76904757990253</v>
+        <v>44.59406200604774</v>
       </c>
       <c r="C27" t="n">
-        <v>5.170355988472476</v>
+        <v>-28.30741045613171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48.82789827040256</v>
+        <v>18.0222053755423</v>
       </c>
       <c r="B28" t="n">
-        <v>2.411965772349432</v>
+        <v>-15.9358156625348</v>
       </c>
       <c r="C28" t="n">
-        <v>28.77880954272868</v>
+        <v>-18.6518231167755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18.13015683375171</v>
+        <v>12.15673094683486</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.235870177957854</v>
+        <v>-8.662190406927659</v>
       </c>
       <c r="C29" t="n">
-        <v>-20.76776276873612</v>
+        <v>26.84823659674597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>69.06820017777609</v>
+        <v>-27.76680324807933</v>
       </c>
       <c r="B30" t="n">
-        <v>70.58898959197681</v>
+        <v>16.77879886656963</v>
       </c>
       <c r="C30" t="n">
-        <v>14.85922415629811</v>
+        <v>-41.40863661104702</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>44.79233044119662</v>
+        <v>24.93234151110601</v>
       </c>
       <c r="B31" t="n">
-        <v>-15.40643830987353</v>
+        <v>-16.18735455743473</v>
       </c>
       <c r="C31" t="n">
-        <v>-29.36769572133217</v>
+        <v>-23.0329943876992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.152839580054304</v>
+        <v>23.64514695798988</v>
       </c>
       <c r="B32" t="n">
-        <v>6.712764268586948</v>
+        <v>22.02658880371414</v>
       </c>
       <c r="C32" t="n">
-        <v>4.062059214879755</v>
+        <v>-34.02701781445975</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>49.66530231657242</v>
+        <v>-30.25000028918757</v>
       </c>
       <c r="B33" t="n">
-        <v>-18.17539170927577</v>
+        <v>14.7812723605606</v>
       </c>
       <c r="C33" t="n">
-        <v>25.31764771724489</v>
+        <v>-17.61908794538355</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-42.09878916455493</v>
+        <v>-28.0344829087243</v>
       </c>
       <c r="B34" t="n">
-        <v>36.89061348559797</v>
+        <v>-33.51417852760381</v>
       </c>
       <c r="C34" t="n">
-        <v>13.67259889644912</v>
+        <v>-16.28660639724717</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-28.05201113081175</v>
+        <v>18.66233324839621</v>
       </c>
       <c r="B35" t="n">
-        <v>-28.99689044088049</v>
+        <v>25.16989614169896</v>
       </c>
       <c r="C35" t="n">
-        <v>10.04280211533438</v>
+        <v>-31.94165273108285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>65.01481051234636</v>
+        <v>39.69022079056131</v>
       </c>
       <c r="B36" t="n">
-        <v>-37.80998075766572</v>
+        <v>31.23720475334736</v>
       </c>
       <c r="C36" t="n">
-        <v>-21.12119094093061</v>
+        <v>-25.49794096758198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-30.10259801682609</v>
+        <v>-24.86882174654432</v>
       </c>
       <c r="B37" t="n">
-        <v>-18.64160270868428</v>
+        <v>-33.86415046780326</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.985305943068883</v>
+        <v>11.10108575779262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27.79573717620429</v>
+        <v>-49.92062868318264</v>
       </c>
       <c r="B38" t="n">
-        <v>-32.6767139203098</v>
+        <v>34.24312456382553</v>
       </c>
       <c r="C38" t="n">
-        <v>2.502528921830644</v>
+        <v>-21.42772792445098</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45.18525917978836</v>
+        <v>-19.84605055334049</v>
       </c>
       <c r="B39" t="n">
-        <v>48.78736442797329</v>
+        <v>-25.68337640090879</v>
       </c>
       <c r="C39" t="n">
-        <v>20.41282957827683</v>
+        <v>14.95932038778145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-28.5780915923078</v>
+        <v>22.08943755349348</v>
       </c>
       <c r="B40" t="n">
-        <v>-23.88660286746972</v>
+        <v>-28.23815148740858</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.024994061487398</v>
+        <v>32.27303749391143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-23.4692405434567</v>
+        <v>-12.45448120969978</v>
       </c>
       <c r="B41" t="n">
-        <v>-24.8486858863868</v>
+        <v>22.1527597143497</v>
       </c>
       <c r="C41" t="n">
-        <v>37.29628582853003</v>
+        <v>-26.66036447522746</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19.2353815074447</v>
+        <v>29.65500623144736</v>
       </c>
       <c r="B42" t="n">
-        <v>-23.64232543156393</v>
+        <v>-26.53588744096328</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.59684697347814</v>
+        <v>37.51078780168239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.38259431120659</v>
+        <v>-34.97395416127378</v>
       </c>
       <c r="B43" t="n">
-        <v>37.96485408617419</v>
+        <v>11.27159449123556</v>
       </c>
       <c r="C43" t="n">
-        <v>-11.94992917424257</v>
+        <v>-26.21126719655911</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.150225088207945</v>
+        <v>-28.35759737909622</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.5729581857447</v>
+        <v>-25.21707869894688</v>
       </c>
       <c r="C44" t="n">
-        <v>12.77123183883377</v>
+        <v>-29.35924307639491</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-18.11370829985816</v>
+        <v>17.26947837617585</v>
       </c>
       <c r="B45" t="n">
-        <v>-24.11780124905014</v>
+        <v>32.185651377179</v>
       </c>
       <c r="C45" t="n">
-        <v>-33.72078347673737</v>
+        <v>18.34805685624681</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-25.51560584747267</v>
+        <v>25.89060244803303</v>
       </c>
       <c r="B46" t="n">
-        <v>34.60423470263888</v>
+        <v>-11.6470957429434</v>
       </c>
       <c r="C46" t="n">
-        <v>28.159764018945</v>
+        <v>29.62625647098071</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>29.21960551554101</v>
+        <v>-24.97182669084065</v>
       </c>
       <c r="B47" t="n">
-        <v>-9.927845420170776</v>
+        <v>20.51538377810957</v>
       </c>
       <c r="C47" t="n">
-        <v>-20.55174429579263</v>
+        <v>22.3108977559832</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.12954019115283</v>
+        <v>33.71278897612012</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.42920939363506</v>
+        <v>27.87999558334275</v>
       </c>
       <c r="C48" t="n">
-        <v>-18.6567080205468</v>
+        <v>-21.96524156702165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-19.53447208317857</v>
+        <v>25.35332007100899</v>
       </c>
       <c r="B49" t="n">
-        <v>-18.82924782458106</v>
+        <v>-16.76143265315353</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.791033028548441</v>
+        <v>-22.84298701176386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15.63874483664073</v>
+        <v>-29.35684517459747</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.71510809463308</v>
+        <v>26.3523503453064</v>
       </c>
       <c r="C50" t="n">
-        <v>45.50395089732011</v>
+        <v>-30.20376565232697</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-19.24892945401631</v>
+        <v>17.30596555256317</v>
       </c>
       <c r="B51" t="n">
-        <v>27.04160411992113</v>
+        <v>17.19344908823499</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.770474497438469</v>
+        <v>-30.03000115406296</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-25.77035616802232</v>
+        <v>14.94490144126301</v>
       </c>
       <c r="B52" t="n">
-        <v>-8.690643450364771</v>
+        <v>23.87513722757122</v>
       </c>
       <c r="C52" t="n">
-        <v>-17.46692662378721</v>
+        <v>22.68900454259282</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-28.77179028642464</v>
+        <v>-25.80472920329487</v>
       </c>
       <c r="B53" t="n">
-        <v>-21.88706470574063</v>
+        <v>28.26730852783488</v>
       </c>
       <c r="C53" t="n">
-        <v>-27.93206400024408</v>
+        <v>-6.512709105070688</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33.40492291671094</v>
+        <v>34.95316878436023</v>
       </c>
       <c r="B54" t="n">
-        <v>-23.42518054017074</v>
+        <v>20.33046635767113</v>
       </c>
       <c r="C54" t="n">
-        <v>-35.55010732485582</v>
+        <v>-35.86352204571403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42.50984710039144</v>
+        <v>19.7232321008887</v>
       </c>
       <c r="B55" t="n">
-        <v>10.56035800598562</v>
+        <v>-10.95104737837818</v>
       </c>
       <c r="C55" t="n">
-        <v>-18.16053971724429</v>
+        <v>36.10180642729889</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.6079460293505</v>
+        <v>18.78146066361339</v>
       </c>
       <c r="B56" t="n">
-        <v>-32.07893079458503</v>
+        <v>-27.46530892665963</v>
       </c>
       <c r="C56" t="n">
-        <v>32.32893640743097</v>
+        <v>22.92536024010169</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-17.35466201587083</v>
+        <v>17.24432102986742</v>
       </c>
       <c r="B57" t="n">
-        <v>-31.22284399873532</v>
+        <v>-18.52010915575536</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.52672033096699</v>
+        <v>-25.52182252802333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>32.16915169370007</v>
+        <v>31.12939274560489</v>
       </c>
       <c r="B58" t="n">
-        <v>-24.85919993755759</v>
+        <v>-17.7999345421639</v>
       </c>
       <c r="C58" t="n">
-        <v>4.368438199319869</v>
+        <v>27.13612244028463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-16.4563639980965</v>
+        <v>-26.25440560272011</v>
       </c>
       <c r="B59" t="n">
-        <v>-17.10156891583966</v>
+        <v>-11.55387975179151</v>
       </c>
       <c r="C59" t="n">
-        <v>33.72684733926211</v>
+        <v>30.77984266580024</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4354517307198186</v>
+        <v>30.0307779553831</v>
       </c>
       <c r="B60" t="n">
-        <v>45.84546191873866</v>
+        <v>13.71878059560754</v>
       </c>
       <c r="C60" t="n">
-        <v>-23.52099357944578</v>
+        <v>25.82884043736433</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49.98451871163034</v>
+        <v>19.94837409708487</v>
       </c>
       <c r="B61" t="n">
-        <v>43.23130742281006</v>
+        <v>-41.17654860015006</v>
       </c>
       <c r="C61" t="n">
-        <v>-21.06188738010321</v>
+        <v>-28.63453069089344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-28.13034224785902</v>
+        <v>-19.10030613227909</v>
       </c>
       <c r="B62" t="n">
-        <v>-37.98860799518944</v>
+        <v>15.51587892108008</v>
       </c>
       <c r="C62" t="n">
-        <v>18.20159198868324</v>
+        <v>37.29902717690745</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-40.18814069984452</v>
+        <v>34.0354859690514</v>
       </c>
       <c r="B63" t="n">
-        <v>-20.28966237520933</v>
+        <v>26.55164555554337</v>
       </c>
       <c r="C63" t="n">
-        <v>-17.94506666671024</v>
+        <v>-13.87357379701484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-16.78479590701546</v>
+        <v>27.46707557819594</v>
       </c>
       <c r="B64" t="n">
-        <v>-18.76395272510026</v>
+        <v>23.02372368074188</v>
       </c>
       <c r="C64" t="n">
-        <v>-33.32254386747897</v>
+        <v>-29.37675424837453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-31.06267622593269</v>
+        <v>-14.34400035301702</v>
       </c>
       <c r="B65" t="n">
-        <v>-20.37406886595626</v>
+        <v>-22.84593729078566</v>
       </c>
       <c r="C65" t="n">
-        <v>15.32057342357004</v>
+        <v>-26.84623495792066</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>42.8599224353552</v>
+        <v>32.82126809566698</v>
       </c>
       <c r="B66" t="n">
-        <v>14.29351788790354</v>
+        <v>28.67017838194538</v>
       </c>
       <c r="C66" t="n">
-        <v>19.92380511431387</v>
+        <v>-36.31937884838988</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.96562006205295</v>
+        <v>12.40931005189424</v>
       </c>
       <c r="B67" t="n">
-        <v>-17.74483396835379</v>
+        <v>23.42296223795888</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.07300760992798</v>
+        <v>-23.326687132784</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-31.41338834621451</v>
+        <v>-43.74381464870219</v>
       </c>
       <c r="B68" t="n">
-        <v>-10.93773475368291</v>
+        <v>25.24755022586551</v>
       </c>
       <c r="C68" t="n">
-        <v>40.92832586007854</v>
+        <v>32.57227013316675</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>46.48821784235216</v>
+        <v>11.21187785196978</v>
       </c>
       <c r="B69" t="n">
-        <v>25.10568491338485</v>
+        <v>-19.49508816929449</v>
       </c>
       <c r="C69" t="n">
-        <v>-18.26215350553672</v>
+        <v>22.48140200350952</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43.72521384989616</v>
+        <v>36.95233840392712</v>
       </c>
       <c r="B70" t="n">
-        <v>16.35116665157996</v>
+        <v>29.71551955166378</v>
       </c>
       <c r="C70" t="n">
-        <v>26.01315242454177</v>
+        <v>-36.20469901652143</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.403521155580814</v>
+        <v>-36.82198641223388</v>
       </c>
       <c r="B71" t="n">
-        <v>21.74630548668805</v>
+        <v>26.11382828440108</v>
       </c>
       <c r="C71" t="n">
-        <v>-14.48272961365953</v>
+        <v>-14.16868737724342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>64.17447347220933</v>
+        <v>-26.38970885746629</v>
       </c>
       <c r="B72" t="n">
-        <v>12.2244332449203</v>
+        <v>-26.67217787234793</v>
       </c>
       <c r="C72" t="n">
-        <v>-27.18665995030412</v>
+        <v>-30.68773726307654</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-5.32418060079371</v>
+        <v>-40.24689505597045</v>
       </c>
       <c r="B73" t="n">
-        <v>-33.33385021313461</v>
+        <v>-19.48513125225109</v>
       </c>
       <c r="C73" t="n">
-        <v>49.42440746244153</v>
+        <v>27.07220227122611</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-44.9080948192198</v>
+        <v>19.42377856353676</v>
       </c>
       <c r="B74" t="n">
-        <v>-25.64857103162943</v>
+        <v>23.03939036765528</v>
       </c>
       <c r="C74" t="n">
-        <v>-31.15438484260638</v>
+        <v>-17.71967389644405</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-12.58272854702496</v>
+        <v>37.47519652811039</v>
       </c>
       <c r="B75" t="n">
-        <v>26.22158339078274</v>
+        <v>18.67319064348577</v>
       </c>
       <c r="C75" t="n">
-        <v>10.82561923950175</v>
+        <v>-27.34021519145585</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-17.25337458255072</v>
+        <v>-19.92564418834293</v>
       </c>
       <c r="B76" t="n">
-        <v>-18.74974279962752</v>
+        <v>-24.13594727330269</v>
       </c>
       <c r="C76" t="n">
-        <v>-27.53399903803286</v>
+        <v>33.8211944995597</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-24.31393393573248</v>
+        <v>14.40965248269746</v>
       </c>
       <c r="B77" t="n">
-        <v>19.31259301215662</v>
+        <v>32.61289388131814</v>
       </c>
       <c r="C77" t="n">
-        <v>26.9702407408076</v>
+        <v>25.40460941741539</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-18.24857501667797</v>
+        <v>21.80021286436538</v>
       </c>
       <c r="B78" t="n">
-        <v>36.10355882945111</v>
+        <v>-38.10032234005303</v>
       </c>
       <c r="C78" t="n">
-        <v>18.14984701401429</v>
+        <v>24.07445765017644</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-22.89343592308115</v>
+        <v>24.84864450802011</v>
       </c>
       <c r="B79" t="n">
-        <v>-27.83468263809084</v>
+        <v>19.65394284740535</v>
       </c>
       <c r="C79" t="n">
-        <v>14.87106672372</v>
+        <v>21.81087889065167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.24362279631653</v>
+        <v>-19.84962635481159</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.474117974324827</v>
+        <v>31.86385209467432</v>
       </c>
       <c r="C80" t="n">
-        <v>-33.31772707828354</v>
+        <v>16.7395221280847</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-27.40918620359875</v>
+        <v>6.376579278341915</v>
       </c>
       <c r="B81" t="n">
-        <v>44.3920138136813</v>
+        <v>33.30289154061654</v>
       </c>
       <c r="C81" t="n">
-        <v>-21.08148194292227</v>
+        <v>-31.0657952734785</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20.69759733344601</v>
+        <v>-29.78308219322306</v>
       </c>
       <c r="B82" t="n">
-        <v>57.47990051472717</v>
+        <v>-13.24063130451423</v>
       </c>
       <c r="C82" t="n">
-        <v>50.40524554593698</v>
+        <v>16.76015195326679</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-30.85644348019292</v>
+        <v>-7.127736566000578</v>
       </c>
       <c r="B83" t="n">
-        <v>-35.48619741001613</v>
+        <v>30.24910341331452</v>
       </c>
       <c r="C83" t="n">
-        <v>-9.50484002100036</v>
+        <v>27.15488815793792</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-23.15932396684805</v>
+        <v>-35.21880488947375</v>
       </c>
       <c r="B84" t="n">
-        <v>-21.58553097238642</v>
+        <v>-32.60646708147262</v>
       </c>
       <c r="C84" t="n">
-        <v>53.2423359472118</v>
+        <v>36.9615969450119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-31.80239994834832</v>
+        <v>-13.93298567542607</v>
       </c>
       <c r="B85" t="n">
-        <v>-36.93449053016274</v>
+        <v>15.48789204939215</v>
       </c>
       <c r="C85" t="n">
-        <v>8.805293070819303</v>
+        <v>-32.31575089048683</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-37.18556555795484</v>
+        <v>-35.23146829054567</v>
       </c>
       <c r="B86" t="n">
-        <v>31.25553379045384</v>
+        <v>23.88605149762342</v>
       </c>
       <c r="C86" t="n">
-        <v>18.38187551359349</v>
+        <v>22.48172413380931</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>12.44187204582197</v>
+        <v>-31.86620022873815</v>
       </c>
       <c r="B87" t="n">
-        <v>-3.303887063181672</v>
+        <v>19.02459144652865</v>
       </c>
       <c r="C87" t="n">
-        <v>52.81296655342589</v>
+        <v>-16.42332773521444</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43.64576938298242</v>
+        <v>-17.0769951206743</v>
       </c>
       <c r="B88" t="n">
-        <v>-32.51359759079259</v>
+        <v>36.47917522073668</v>
       </c>
       <c r="C88" t="n">
-        <v>11.69432801156814</v>
+        <v>29.43604182773358</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-33.16168888405176</v>
+        <v>23.18960441196235</v>
       </c>
       <c r="B89" t="n">
-        <v>6.157194260152506</v>
+        <v>-22.21170749403728</v>
       </c>
       <c r="C89" t="n">
-        <v>-29.09931709938856</v>
+        <v>9.846680411766656</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-29.0958304433087</v>
+        <v>32.06285016594486</v>
       </c>
       <c r="B90" t="n">
-        <v>-25.00052128298904</v>
+        <v>-19.05641374904714</v>
       </c>
       <c r="C90" t="n">
-        <v>-2.058330887189089</v>
+        <v>11.91981919517617</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-30.88978518734389</v>
+        <v>-21.74070035687688</v>
       </c>
       <c r="B91" t="n">
-        <v>12.89107348566347</v>
+        <v>-30.52512609865676</v>
       </c>
       <c r="C91" t="n">
-        <v>-23.456952138298</v>
+        <v>33.87157473872682</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>42.31666948488159</v>
+        <v>31.57562180601893</v>
       </c>
       <c r="B92" t="n">
-        <v>60.11956492380974</v>
+        <v>-2.656284788221649</v>
       </c>
       <c r="C92" t="n">
-        <v>28.00619160895169</v>
+        <v>29.00188508728377</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>35.83184015738313</v>
+        <v>20.68223348976157</v>
       </c>
       <c r="B93" t="n">
-        <v>-9.412745711514086</v>
+        <v>13.06850119924087</v>
       </c>
       <c r="C93" t="n">
-        <v>23.65165945777623</v>
+        <v>-12.96239193630298</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>46.32593388984736</v>
+        <v>-31.53757137817498</v>
       </c>
       <c r="B94" t="n">
-        <v>-27.36370020987002</v>
+        <v>-31.66882526649592</v>
       </c>
       <c r="C94" t="n">
-        <v>-37.08763071523812</v>
+        <v>19.21512015578467</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>24.63015722319682</v>
+        <v>31.95163587644833</v>
       </c>
       <c r="B95" t="n">
-        <v>-12.58496314193712</v>
+        <v>-23.36431327637246</v>
       </c>
       <c r="C95" t="n">
-        <v>-36.29276494359468</v>
+        <v>26.01363879220741</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-31.76853863244839</v>
+        <v>-50.28557312377501</v>
       </c>
       <c r="B96" t="n">
-        <v>12.27812056052992</v>
+        <v>-21.69150162932418</v>
       </c>
       <c r="C96" t="n">
-        <v>-17.62174805739279</v>
+        <v>-24.27941945254496</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-13.12856147681686</v>
+        <v>-32.74066114046468</v>
       </c>
       <c r="B97" t="n">
-        <v>21.21272119823124</v>
+        <v>17.37658252699229</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.350310937240014</v>
+        <v>20.44718031498465</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-10.33755977686972</v>
+        <v>-24.5122001491308</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.911637674040542</v>
+        <v>31.70611467640382</v>
       </c>
       <c r="C98" t="n">
-        <v>41.98844486940032</v>
+        <v>15.17162562033115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.87828224660043</v>
+        <v>-25.46478290354752</v>
       </c>
       <c r="B99" t="n">
-        <v>41.72337876560152</v>
+        <v>-21.74353694512335</v>
       </c>
       <c r="C99" t="n">
-        <v>-27.48906236500982</v>
+        <v>28.5389500800291</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>25.92973959875805</v>
+        <v>36.72702956795032</v>
       </c>
       <c r="B100" t="n">
-        <v>19.93540291849125</v>
+        <v>19.87787717842207</v>
       </c>
       <c r="C100" t="n">
-        <v>-15.97597648757021</v>
+        <v>-28.38435267006486</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-17.50117330410206</v>
+        <v>-36.48264847190863</v>
       </c>
       <c r="B101" t="n">
-        <v>-24.16497525257885</v>
+        <v>28.23536095906891</v>
       </c>
       <c r="C101" t="n">
-        <v>30.22981751170209</v>
+        <v>23.53887262781285</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-14.82884777290387</v>
+        <v>28.56704867697005</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>31.66783456441723</v>
+        <v>-27.06381549877594</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-22.75711536800377</v>
+        <v>-20.89725138366555</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31.82788671420145</v>
+        <v>-23.89570375757064</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-28.01277837167483</v>
+        <v>30.30067950045559</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>26.14160226361053</v>
+        <v>-29.9233116748853</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-4.308142960911246</v>
+        <v>24.98008995855546</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-32.25555544060536</v>
+        <v>-30.1630974987475</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-38.09990944839188</v>
+        <v>-7.933217030979384</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-22.11257604770104</v>
+        <v>18.87617338650674</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-11.74070904793367</v>
+        <v>-29.12704557255826</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-21.30061169798303</v>
+        <v>-14.51244070027143</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-33.51577406262568</v>
+        <v>35.03470542623224</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-37.3572594299364</v>
+        <v>-30.20490464287522</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-40.77398521666085</v>
+        <v>-15.94109446010948</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.851583224849806</v>
+        <v>37.03578120103012</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>57.4351974145748</v>
+        <v>-34.91184319161639</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-29.38412260817787</v>
+        <v>18.10960476409107</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>61.40480959805672</v>
+        <v>39.83408533519039</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>37.23589674729119</v>
+        <v>30.16414741421671</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-23.83431288338874</v>
+        <v>-33.11663526291539</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-21.83630705914544</v>
+        <v>26.07108369592868</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>22.50896690982984</v>
+        <v>18.34836848772121</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.247090140879025</v>
+        <v>-32.13347756562852</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>12.51627169599347</v>
+        <v>-11.43672043923451</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.445708842871989</v>
+        <v>19.62208209581627</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>40.47426627182647</v>
+        <v>25.13628901170953</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-33.42664510724057</v>
+        <v>-14.80168924781469</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>29.60682348032499</v>
+        <v>13.4326361404007</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>32.42928959344952</v>
+        <v>-27.28274464883197</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-26.18262772306463</v>
+        <v>-23.02071921062504</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>14.31540195781109</v>
+        <v>-29.36586121417352</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>23.7579221661153</v>
+        <v>32.12115161698249</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-21.85498656805263</v>
+        <v>19.01471309070619</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>21.77944354745601</v>
+        <v>26.00639653797291</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>57.19249625739786</v>
+        <v>20.15273943892844</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>14.42905474611912</v>
+        <v>8.390264162210272</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-2.957880876727177</v>
+        <v>28.05663370329509</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-16.6100531503621</v>
+        <v>33.14269658920873</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-31.67789300845248</v>
+        <v>-25.48933194515249</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-27.45670983483892</v>
+        <v>20.95139426687146</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-4.327624873968216</v>
+        <v>21.38298327268691</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-35.81062486934749</v>
+        <v>-29.07317582736827</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>24.08941241494512</v>
+        <v>-36.43415133892879</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.2160900506662348</v>
+        <v>-26.20045458611076</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>24.72130896886629</v>
+        <v>33.74008356735153</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-20.69047287411321</v>
+        <v>-22.737369197047</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-19.89204978168235</v>
+        <v>-30.54247950300006</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-28.78033593257906</v>
+        <v>19.9529375259849</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-20.77675309197551</v>
+        <v>9.310898611779407</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
